--- a/Meiru Zhong_Home Loan Data for Analysis.xlsx
+++ b/Meiru Zhong_Home Loan Data for Analysis.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhongmeiru/Desktop/brandeis/external_study/JP Chase - CADP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhongmeiru/Desktop/brandeis/external_study/JP Chase - CADP/my work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C72B3B4-C9AE-3C40-909F-5F487500F837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4833E4B6-A42E-354E-8E2D-05792077EB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="12280" yWindow="500" windowWidth="16520" windowHeight="16140" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5160" yWindow="500" windowWidth="23640" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data set" sheetId="2" r:id="rId1"/>
     <sheet name="summary" sheetId="8" r:id="rId2"/>
-    <sheet name="age ranges" sheetId="11" r:id="rId3"/>
-    <sheet name="appraised home values" sheetId="7" r:id="rId4"/>
-    <sheet name="annual income" sheetId="6" r:id="rId5"/>
-    <sheet name="% minority" sheetId="4" r:id="rId6"/>
-    <sheet name="LTV" sheetId="3" r:id="rId7"/>
+    <sheet name="Tableau" sheetId="12" r:id="rId3"/>
+    <sheet name="age ranges" sheetId="11" r:id="rId4"/>
+    <sheet name="appraised home values" sheetId="7" r:id="rId5"/>
+    <sheet name="annual income" sheetId="6" r:id="rId6"/>
+    <sheet name="% minority" sheetId="4" r:id="rId7"/>
+    <sheet name="LTV" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="28" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="78">
   <si>
     <t>LTV ratio</t>
   </si>
@@ -225,30 +226,6 @@
     <t>Number of borrowers in appraised home value ranges</t>
   </si>
   <si>
-    <r>
-      <t>Also, how could you analyze the data to see if the extract is likely representative of the larger dataset it was pulled from? Hint: are the appraised home values </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="15"/>
-        <color rgb="FF333333"/>
-        <rFont val="Baskerville"/>
-        <family val="1"/>
-      </rPr>
-      <t>normally distributed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF333333"/>
-        <rFont val="Baskerville"/>
-        <family val="1"/>
-      </rPr>
-      <t>? How about annual incomes?</t>
-    </r>
-  </si>
-  <si>
     <t>average appraised value of home</t>
   </si>
   <si>
@@ -260,12 +237,51 @@
   <si>
     <t xml:space="preserve">Sum of Borrower </t>
   </si>
+  <si>
+    <t>Criteria to identify target borrowers</t>
+  </si>
+  <si>
+    <t>● Have loan-to-value ratios below 80 (so they have significant equity in their homes)</t>
+  </si>
+  <si>
+    <t>● Have annual incomes over a certain threshold (so they are more likely to be able to afford more financial products and services)</t>
+  </si>
+  <si>
+    <t>● Have homes worth an amount over a certain threshold (so they are more likely to want to invest in them further or borrow against them)</t>
+  </si>
+  <si>
+    <t>Conclusions:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The percentage of borrowers with LTV ratios below 80 is 65%. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The percentage of borrowers, who have homes in locations with over 60% minority population, is 11%. </t>
+  </si>
+  <si>
+    <t>92% borrowers' annual income are below 218,000. Set the threshold as 218,000, which means people, who have annual income equal or more than this amount, are more likely to want to invest in financial products and services further or borrow against them.</t>
+  </si>
+  <si>
+    <t>63% borrowers' appraised home values are below 435000. Set the threshold as 435,000, which means people, who have homes worth than or over this amount, are more likely to want to invest in financial products and services further or borrow against them.</t>
+  </si>
+  <si>
+    <t>The majority borrowers are aged from 35 to 74.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall, there are 348 borrowers should be targeted. </t>
+  </si>
+  <si>
+    <t>These targets aged 35 to 44 with homes in locations with 70%-80% minority population, annual income above $218,000, appraised home value above $435,000, and LTV ratio below 80%.</t>
+  </si>
+  <si>
+    <t>● Have homes in locations with a high minority population over 70% (which would enable company to increase support to those communities, which is both a regulatory and a strategic requirement)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,19 +437,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FF333333"/>
-      <name val="Baskerville"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="15"/>
-      <color rgb="FF333333"/>
-      <name val="Baskerville"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="37">
@@ -801,7 +804,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -823,7 +826,14 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1328,6 +1338,50 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Numbe of borrowers with LTV ratios </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1340,13 +1394,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1444,6 +1512,45 @@
             </a:contourClr>
           </a:sp3d>
         </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
@@ -1466,6 +1573,45 @@
             </a:contourClr>
           </a:sp3d>
         </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="3"/>
@@ -1899,6 +2045,26 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-79F3-414F-A890-C3841EE0BD9F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-79F3-414F-A890-C3841EE0BD9F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -13494,6 +13660,55 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>173904</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66E90EE4-34F8-54B6-326D-715AF219FDA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7772400" cy="5888904"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -13569,7 +13784,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13646,7 +13861,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13687,15 +13902,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>692150</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13723,7 +13938,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13764,15 +13979,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>692150</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
+      <xdr:colOff>673100</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13800,7 +14015,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13841,15 +14056,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23661,8 +23876,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2A68D71E-6BFA-4445-830A-729CF279AE73}" name="PivotTable6" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A5:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2A68D71E-6BFA-4445-830A-729CF279AE73}" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A11:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -23675,7 +23890,7 @@
         <item h="1" x="4"/>
         <item h="1" x="5"/>
         <item h="1" x="6"/>
-        <item x="7"/>
+        <item h="1" x="7"/>
         <item x="8"/>
         <item x="9"/>
         <item x="10"/>
@@ -23771,13 +23986,7 @@
     <field x="2"/>
     <field x="7"/>
   </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
+  <rowItems count="3">
     <i>
       <x v="8"/>
     </i>
@@ -23812,7 +24021,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{99A43532-90B3-D449-A372-53753EB3BBB3}" name="PivotTable8" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{99A43532-90B3-D449-A372-53753EB3BBB3}" name="PivotTable8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -24190,7 +24399,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6E33D98B-6749-3947-9E6D-06235B15E887}" name="PivotTable5" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6E33D98B-6749-3947-9E6D-06235B15E887}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -24411,7 +24620,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E3A962E1-6AA5-374D-9955-738D0851EE9D}" name="PivotTable4" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E3A962E1-6AA5-374D-9955-738D0851EE9D}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -24933,7 +25142,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CC33B1E9-9116-BA44-B4CC-AA1FE3911D1D}" name="PivotTable2" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CC33B1E9-9116-BA44-B4CC-AA1FE3911D1D}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0">
@@ -25711,7 +25920,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E62F3553-A68D-2C4A-BBE3-690BAE540175}" name="PivotTable1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E62F3553-A68D-2C4A-BBE3-690BAE540175}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A1:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -26294,8 +26503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N507"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -48403,90 +48612,117 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70017846-D687-0848-8D73-A73F46754B56}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B12" s="10">
         <v>348</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B13" s="10">
         <v>348</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="10">
-        <v>368</v>
-      </c>
+      <c r="B14" s="10">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48495,11 +48731,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C167B2C-30EE-B64D-84A0-A85EFF9AAFBF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932792A7-2094-5548-BBBE-8301149F992B}">
-  <dimension ref="A3:B13"/>
+  <dimension ref="A3:E36"/>
   <sheetViews>
     <sheetView zoomScale="95" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -48582,7 +48831,12 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -48591,12 +48845,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06142F17-E1E8-3B48-B88C-FC5C44BF62A0}">
   <dimension ref="A3:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A15" zoomScale="101" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -48695,7 +48949,7 @@
     </row>
     <row r="16" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16">
         <f>AVERAGE('data set'!J8:J507)</f>
@@ -48709,72 +48963,72 @@
       </c>
     </row>
     <row r="39" spans="4:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D39" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-    </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-    </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-    </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-    </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
+      <c r="D39" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="16"/>
+    </row>
+    <row r="40" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="16"/>
+    </row>
+    <row r="41" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="16"/>
+    </row>
+    <row r="42" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+    </row>
+    <row r="43" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D39:K43"/>
+    <mergeCell ref="D39:J41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1933BD4F-9564-AF41-BF97-2B55C37AA19C}">
-  <dimension ref="A3:B17"/>
+  <dimension ref="A3:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -48868,7 +49122,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14">
         <f>AVERAGE('data set'!E8:E507)</f>
@@ -48881,18 +49135,47 @@
         <v>99999</v>
       </c>
     </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D35" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D35:I37"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF83D1B7-3E96-8740-85A1-8C7EC9B4128F}">
-  <dimension ref="A3:B14"/>
+  <dimension ref="A3:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -48997,18 +49280,23 @@
         <v>125250</v>
       </c>
     </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5324536-9644-5443-8C8C-F147A2459535}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -49107,6 +49395,11 @@
         <v>125250</v>
       </c>
     </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
